--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,31 +13,47 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="10.5"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -49,7 +66,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FA9A"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,87 +79,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FA9A"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -433,467 +468,1366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>45033.76026232639</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>176fstcp</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>46</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>45033.76099497685</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>aasdd132</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>46</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>45033.76380826389</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>1dds</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>46</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2.63</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>45033.76664994213</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>176ffstccp</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>0.55</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>45033.77058422453</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>176scndttth</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>46</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>45033.78040935185</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>176fsttrlcp</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>46</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>0.54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>45033.80253703704</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>176scnfttfs</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>46</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>-6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>1.72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>45033.93379813658</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>176scndtts</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>46</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>-6</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>1.49</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>45034.3924007282</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" s="6" t="n">
+        <v>45034.39240072916</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>176fstcpreal</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>46</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>-7</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>1.33</v>
       </c>
     </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>45034.50078416667</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>176realcp</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45034.50399511574</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>176realcp</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>45034.50606252904</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>176fstrcp</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>46</v>
+      </c>
+      <c r="E13" t="n">
+        <v>62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>45033.76026232639</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>176fstcp</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>45033.76099497685</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>aasdd132</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>45033.76380826389</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>1dds</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>45033.76664994213</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>176ffstccp</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>45033.77058422453</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>176scndttth</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>45033.78040935185</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>176fsttrlcp</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>45033.80253703704</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>176scnfttfs</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>45033.93379813658</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>176scndtts</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>45034.39240072916</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>176fstcpreal</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>45034.50078416667</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>176realcp</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>45033.76026232639</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>176fstcp</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>45033.76099497685</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>aasdd132</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>45033.76380826389</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>1dds</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>45033.76664994213</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>176ffstccp</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>45033.77058422453</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>176scndttth</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>45033.78040935185</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>176fsttrlcp</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>45033.80253703704</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>176scnfttfs</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>45033.93379813658</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>176scndtts</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>45034.39240072916</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>176fstcpreal</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>45034.50078416667</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>176realcp</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>45033.76026232639</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>176fstcp</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>45033.76099497685</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>aasdd132</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>45033.76380826389</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>1dds</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>45033.76664994213</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>176ffstccp</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>45033.77058422453</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>176scndttth</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>45033.78040935185</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>176fsttrlcp</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>45033.80253703704</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>176scnfttfs</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>45033.93379813658</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>176scndtts</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>45034.39240072916</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>176fstcpreal</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>45034.50078416667</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>176realcp</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -815,30 +815,84 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>45034.50606252904</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>45034.50606253473</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>176fstrcp</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>46</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>-16</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>45035.6832046412</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>176scncpp</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>45036.39939811343</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>176fnalcp</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1495,6 +1549,87 @@
       </c>
       <c r="G11" s="5" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45036.50024783565</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>176betacus</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>45043.46260599537</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>176livecpp</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>45044.72941020147</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>176fstcproperty</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>62</v>
+      </c>
+      <c r="E14" t="n">
+        <v>62</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.98</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -893,6 +893,222 @@
       </c>
       <c r="G15" s="5" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>45062.80732266204</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>177fstcp</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>45063.68234184028</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>177scndcp</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>45064.3574087963</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>177fnlcp</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>45069.64681975694</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>177htfxcp</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>45071.41484289352</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>178day1cp</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>45072.5199596875</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>178daytwocp</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>45075.45126469908</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>178daythreecp</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>45089.60401566205</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>178cpdy</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>62</v>
+      </c>
+      <c r="E23" t="n">
+        <v>62</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1606,30 +1822,84 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>45044.72941020147</v>
-      </c>
-      <c r="C14" t="inlineStr">
+        <v>45044.72941019676</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>176fstcproperty</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>62</v>
-      </c>
-      <c r="E14" t="n">
-        <v>62</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="D14" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>2.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>45064.52285019676</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>177betacp</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>45065.56931037037</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>177livecp</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1085,30 +1085,57 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B23" s="8" t="n">
-        <v>45089.60401566205</v>
-      </c>
-      <c r="C23" t="inlineStr">
+        <v>45089.60401565972</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>178cpdy</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>62</v>
-      </c>
-      <c r="E23" t="n">
-        <v>62</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="D23" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5" t="n">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>45138.42099041666</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>180cstpro</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1900,6 +1927,60 @@
       </c>
       <c r="G16" s="5" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>45139.53936650463</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>180cpro</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>45139.86390398744</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>180livecp</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" t="n">
+        <v>62</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1136,6 +1136,492 @@
       </c>
       <c r="G24" s="5" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>45202.51870853009</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>183scndccpp</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>45203.49720994213</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>183fnlccp</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>45226.66985028935</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>184cpfst</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>45229.38104494213</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>184fnlcp</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>45258.42785096064</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>185ccpp</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>45259.36608487269</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>185cplst</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>45275.72961079861</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>186cpop</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>45278.41624150463</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>186cpfnl</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>45299.7009496875</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>187cpfst</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>45301.33964152777</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>187lstcpp</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>45323.6493452662</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>188cpfstcyc</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>45324.83464849537</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>188cpscndcycl</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>45327.39025707176</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>188lstcp</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>45341.45138069445</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>188cphtfxs</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>45357.64962429398</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>189fstcpp</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>45358.53506920139</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>189scndcp</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>45359.33787145833</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>189fnlcp</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>45359.35173760416</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>189fnlccppp</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1957,30 +2443,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>45139.86390398744</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>45139.86390399306</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>180livecp</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>62</v>
-      </c>
-      <c r="E18" t="n">
-        <v>62</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="D18" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>45203.51874203703</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>183betacp</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>45203.92294359954</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>183livecp</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>45229.63471960648</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>184beyacp</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>45229.80443488426</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>184livecp</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>45259.57752585648</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>185betacp</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>45259.89557505787</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>185cplive</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>45278.56208400463</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>186betacpp</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>45279.489070625</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>186licp</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>45301.55287709491</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>187betacp</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>45301.87098559028</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>187livecpp</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>45327.57349504629</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>188betacp</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>45327.87095915509</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>188livecp</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>45344.76785668982</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>188dubcccppp</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>45359.4354725926</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>189betacp</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>45359.72567608424</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>189amscp</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>62</v>
+      </c>
+      <c r="E33" t="n">
+        <v>62</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1622,6 +1622,114 @@
       </c>
       <c r="G42" s="5" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>45379.52555458334</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>190fstcp</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>45383.37190483796</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>190fnlcp</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>45414.46824693287</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>191fstcp</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>45415.34168078704</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>191lstcpr</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +2073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2848,30 +2956,111 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B33" s="8" t="n">
-        <v>45359.72567608424</v>
-      </c>
-      <c r="C33" t="inlineStr">
+        <v>45359.72567608796</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>189amscp</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>62</v>
-      </c>
-      <c r="E33" t="n">
-        <v>62</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="D33" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>45383.52486285879</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>190betacp</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>45383.8474333449</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>190livecpp</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>45415.59175239856</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>191betacpp</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>62</v>
+      </c>
+      <c r="E36" t="n">
+        <v>62</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -2073,7 +2073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3037,30 +3037,57 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B36" s="8" t="n">
-        <v>45415.59175239856</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>45415.59175239583</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>191betacpp</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>62</v>
-      </c>
-      <c r="E36" t="n">
-        <v>62</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>45418.55674597022</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>191livecp</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>62</v>
+      </c>
+      <c r="E37" t="n">
+        <v>62</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1730,6 +1730,33 @@
       </c>
       <c r="G46" s="5" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="n">
+        <v>45467.41065838557</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>193fixescp</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>62</v>
+      </c>
+      <c r="E47" t="n">
+        <v>62</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -3064,29 +3091,29 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B37" s="8" t="n">
-        <v>45418.55674597022</v>
-      </c>
-      <c r="C37" t="inlineStr">
+        <v>45418.55674597222</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>191livecp</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>62</v>
-      </c>
-      <c r="E37" t="n">
-        <v>62</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="D37" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_CustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1733,30 +1733,111 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B47" s="8" t="n">
-        <v>45467.41065838557</v>
-      </c>
-      <c r="C47" t="inlineStr">
+        <v>45467.41065839121</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>193fixescp</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>62</v>
-      </c>
-      <c r="E47" t="n">
-        <v>62</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="D47" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
         <v>1.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v>45489.63137884259</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>194ffstcpp</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>45490.7474747801</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>194scndcp</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>45491.35262340278</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>194fnlcp</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2085,6 +2166,33 @@
       </c>
       <c r="G11" s="5" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45491.63070092614</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>194betaaacp</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>62</v>
+      </c>
+      <c r="E12" t="n">
+        <v>62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
